--- a/Source Data/Open Process Data - Eveningstar.xlsx
+++ b/Source Data/Open Process Data - Eveningstar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shivk\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D DRIVE\JK_SOFT_PROJECTS\morning_star\Source Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{41A65FA2-FCC7-4B90-8E0C-A1A0FE862064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4427954-DF03-4BF6-8CA6-0D4008C1EE0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-16320" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17563" windowHeight="6120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenProcessData-Mornings" sheetId="1" r:id="rId1"/>
@@ -19,23 +19,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OpenProcessData-Mornings'!$A$1:$AP$110</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="538">
   <si>
     <t>Case No</t>
   </si>
@@ -1646,12 +1634,15 @@
   </si>
   <si>
     <t>FN 182</t>
+  </si>
+  <si>
+    <t>Management Info Manager Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2497,62 +2488,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AQ110"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.41015625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.76171875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.8203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.76171875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.52734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.87890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.17578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.3515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.1171875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.3515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.17578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.52734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.05859375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.8203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.46875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.87890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="35.76171875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.5859375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.05859375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.52734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.41015625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.87890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="29.05859375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.87890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="35.76171875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.52734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.76171875" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.41015625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="10.64453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.9375" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18.87890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.9375" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.52734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.41015625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="16384" width="8.9375" style="1"/>
+    <col min="1" max="1" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="35.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="29.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="35.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="24.33203125" style="1" customWidth="1"/>
+    <col min="44" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2679,8 +2671,11 @@
       <c r="AP1" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="AQ1" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>2557</v>
       </c>
@@ -2765,8 +2760,11 @@
         <v>50</v>
       </c>
       <c r="AP2" s="3"/>
+      <c r="AQ2" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2061</v>
       </c>
@@ -2855,8 +2853,11 @@
       <c r="AP3" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="AQ3" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2938</v>
       </c>
@@ -2935,8 +2936,11 @@
         <v>50</v>
       </c>
       <c r="AP4" s="3"/>
+      <c r="AQ4" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2896</v>
       </c>
@@ -3027,8 +3031,11 @@
       <c r="AP5" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="AQ5" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>66</v>
       </c>
@@ -3123,8 +3130,11 @@
         <v>50</v>
       </c>
       <c r="AP6" s="3"/>
+      <c r="AQ6" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>66</v>
       </c>
@@ -3219,8 +3229,11 @@
         <v>50</v>
       </c>
       <c r="AP7" s="3"/>
+      <c r="AQ7" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>66</v>
       </c>
@@ -3315,8 +3328,11 @@
         <v>50</v>
       </c>
       <c r="AP8" s="3"/>
+      <c r="AQ8" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2280</v>
       </c>
@@ -3411,8 +3427,11 @@
         <v>50</v>
       </c>
       <c r="AP9" s="3"/>
+      <c r="AQ9" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>3192</v>
       </c>
@@ -3509,8 +3528,11 @@
         <v>50</v>
       </c>
       <c r="AP10" s="3"/>
+      <c r="AQ10" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>3192</v>
       </c>
@@ -3609,8 +3631,11 @@
       <c r="AP11" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AQ11" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>2068</v>
       </c>
@@ -3701,8 +3726,11 @@
         <v>50</v>
       </c>
       <c r="AP12" s="3"/>
+      <c r="AQ12" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +3823,11 @@
         <v>50</v>
       </c>
       <c r="AP13" s="3"/>
+      <c r="AQ13" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>92</v>
       </c>
@@ -3895,8 +3926,11 @@
       <c r="AP14" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="AQ14" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="15" spans="1:42" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>2416</v>
       </c>
@@ -3991,8 +4025,11 @@
       <c r="AP15" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AQ15" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="16" spans="1:42" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>104</v>
       </c>
@@ -4093,8 +4130,11 @@
       <c r="AP16" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AQ16" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="17" spans="1:42" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>2051</v>
       </c>
@@ -4193,8 +4233,11 @@
       <c r="AP17" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AQ17" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>114</v>
       </c>
@@ -4285,8 +4328,11 @@
         <v>50</v>
       </c>
       <c r="AP18" s="3"/>
+      <c r="AQ18" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>114</v>
       </c>
@@ -4377,8 +4423,11 @@
         <v>50</v>
       </c>
       <c r="AP19" s="3"/>
+      <c r="AQ19" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>114</v>
       </c>
@@ -4473,8 +4522,11 @@
       <c r="AP20" s="3" t="s">
         <v>119</v>
       </c>
+      <c r="AQ20" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>120</v>
       </c>
@@ -4565,8 +4617,11 @@
         <v>50</v>
       </c>
       <c r="AP21" s="3"/>
+      <c r="AQ21" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="22" spans="1:42" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>120</v>
       </c>
@@ -4663,8 +4718,11 @@
       <c r="AP22" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AQ22" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>2875</v>
       </c>
@@ -4755,8 +4813,11 @@
       <c r="AP23" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="AQ23" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>127</v>
       </c>
@@ -4853,8 +4914,11 @@
         <v>50</v>
       </c>
       <c r="AP24" s="3"/>
+      <c r="AQ24" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="25" spans="1:42" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>129</v>
       </c>
@@ -4943,8 +5007,11 @@
         <v>50</v>
       </c>
       <c r="AP25" s="3"/>
+      <c r="AQ25" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>135</v>
       </c>
@@ -5041,8 +5108,11 @@
       <c r="AP26" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AQ26" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>2874</v>
       </c>
@@ -5133,8 +5203,11 @@
       <c r="AP27" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="AQ27" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>3237713390</v>
       </c>
@@ -5233,8 +5306,11 @@
       <c r="AP28" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AQ28" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>143</v>
       </c>
@@ -5323,8 +5399,11 @@
         <v>50</v>
       </c>
       <c r="AP29" s="3"/>
+      <c r="AQ29" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>145</v>
       </c>
@@ -5423,8 +5502,11 @@
       <c r="AP30" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="AQ30" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>145</v>
       </c>
@@ -5517,8 +5599,11 @@
         <v>50</v>
       </c>
       <c r="AP31" s="3"/>
+      <c r="AQ31" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>153</v>
       </c>
@@ -5609,8 +5694,11 @@
         <v>50</v>
       </c>
       <c r="AP32" s="3"/>
+      <c r="AQ32" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>155</v>
       </c>
@@ -5703,8 +5791,11 @@
         <v>50</v>
       </c>
       <c r="AP33" s="3"/>
+      <c r="AQ33" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>155</v>
       </c>
@@ -5799,8 +5890,11 @@
         <v>50</v>
       </c>
       <c r="AP34" s="3"/>
+      <c r="AQ34" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>158</v>
       </c>
@@ -5891,8 +5985,11 @@
         <v>50</v>
       </c>
       <c r="AP35" s="3"/>
+      <c r="AQ35" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>162</v>
       </c>
@@ -5991,8 +6088,11 @@
       <c r="AP36" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="AQ36" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>166</v>
       </c>
@@ -6091,8 +6191,11 @@
       <c r="AP37" s="3" t="s">
         <v>168</v>
       </c>
+      <c r="AQ37" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>166</v>
       </c>
@@ -6193,8 +6296,11 @@
       <c r="AP38" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AQ38" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>171</v>
       </c>
@@ -6287,8 +6393,11 @@
       <c r="AP39" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="AQ39" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="40" spans="1:42" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>2059</v>
       </c>
@@ -6385,8 +6494,11 @@
       <c r="AP40" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AQ40" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>2030</v>
       </c>
@@ -6483,8 +6595,11 @@
       <c r="AP41" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="AQ41" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>2030</v>
       </c>
@@ -6583,8 +6698,11 @@
       <c r="AP42" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AQ42" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="43" spans="1:42" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>2844</v>
       </c>
@@ -6669,8 +6787,11 @@
       <c r="AP43" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AQ43" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>2196</v>
       </c>
@@ -6757,8 +6878,11 @@
         <v>50</v>
       </c>
       <c r="AP44" s="3"/>
+      <c r="AQ44" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>188</v>
       </c>
@@ -6857,8 +6981,11 @@
       <c r="AP45" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AQ45" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>188</v>
       </c>
@@ -6953,8 +7080,11 @@
       <c r="AP46" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AQ46" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>2308</v>
       </c>
@@ -7037,8 +7167,11 @@
       <c r="AP47" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AQ47" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>198</v>
       </c>
@@ -7139,8 +7272,11 @@
       <c r="AP48" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="AQ48" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>201</v>
       </c>
@@ -7237,8 +7373,11 @@
       <c r="AP49" s="3" t="s">
         <v>204</v>
       </c>
+      <c r="AQ49" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="50" spans="1:42" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>201</v>
       </c>
@@ -7335,8 +7474,11 @@
       <c r="AP50" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AQ50" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>207</v>
       </c>
@@ -7435,8 +7577,11 @@
       <c r="AP51" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AQ51" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>2647</v>
       </c>
@@ -7529,8 +7674,11 @@
       <c r="AP52" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="AQ52" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>2669</v>
       </c>
@@ -7621,8 +7769,11 @@
       <c r="AP53" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="AQ53" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>2669</v>
       </c>
@@ -7717,8 +7868,11 @@
       <c r="AP54" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AQ54" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>2974</v>
       </c>
@@ -7795,8 +7949,11 @@
         <v>50</v>
       </c>
       <c r="AP55" s="3"/>
+      <c r="AQ55" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>2306</v>
       </c>
@@ -7891,8 +8048,11 @@
       <c r="AP56" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="AQ56" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>220</v>
       </c>
@@ -7991,8 +8151,11 @@
         <v>50</v>
       </c>
       <c r="AP57" s="3"/>
+      <c r="AQ57" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>2263</v>
       </c>
@@ -8085,8 +8248,11 @@
       <c r="AP58" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="AQ58" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>225</v>
       </c>
@@ -8181,8 +8347,11 @@
         <v>50</v>
       </c>
       <c r="AP59" s="3"/>
+      <c r="AQ59" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>225</v>
       </c>
@@ -8279,8 +8448,11 @@
       <c r="AP60" s="3" t="s">
         <v>204</v>
       </c>
+      <c r="AQ60" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>2873</v>
       </c>
@@ -8371,8 +8543,11 @@
       <c r="AP61" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="AQ61" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>2031</v>
       </c>
@@ -8475,8 +8650,11 @@
       <c r="AP62" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AQ62" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>3029</v>
       </c>
@@ -8557,8 +8735,11 @@
         <v>50</v>
       </c>
       <c r="AP63" s="3"/>
+      <c r="AQ63" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="64" spans="1:42" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>235</v>
       </c>
@@ -8659,8 +8840,11 @@
       <c r="AP64" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="AQ64" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>3237712590</v>
       </c>
@@ -8751,8 +8935,11 @@
       <c r="AP65" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AQ65" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>2877</v>
       </c>
@@ -8843,8 +9030,11 @@
       <c r="AP66" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="AQ66" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>240</v>
       </c>
@@ -8935,8 +9125,11 @@
       <c r="AP67" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AQ67" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>2038</v>
       </c>
@@ -9027,8 +9220,11 @@
         <v>50</v>
       </c>
       <c r="AP68" s="3"/>
+      <c r="AQ68" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>2038</v>
       </c>
@@ -9125,8 +9321,11 @@
       <c r="AP69" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="AQ69" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>2383</v>
       </c>
@@ -9221,8 +9420,11 @@
       <c r="AP70" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AQ70" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>2251</v>
       </c>
@@ -9317,8 +9519,11 @@
       <c r="AP71" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AQ71" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>2181</v>
       </c>
@@ -9413,8 +9618,11 @@
       <c r="AP72" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AQ72" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>2876</v>
       </c>
@@ -9505,8 +9713,11 @@
       <c r="AP73" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="AQ73" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="74" spans="1:42" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>2165</v>
       </c>
@@ -9601,8 +9812,11 @@
       <c r="AP74" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="AQ74" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="75" spans="1:42" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>261</v>
       </c>
@@ -9697,8 +9911,11 @@
         <v>50</v>
       </c>
       <c r="AP75" s="3"/>
+      <c r="AQ75" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="76" spans="1:42" ht="43" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:43" ht="44.4" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>261</v>
       </c>
@@ -9797,8 +10014,11 @@
       <c r="AP76" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AQ76" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>2642</v>
       </c>
@@ -9895,8 +10115,11 @@
       <c r="AP77" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AQ77" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>2878</v>
       </c>
@@ -9981,8 +10204,11 @@
       <c r="AP78" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="AQ78" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="79" spans="1:42" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>2546</v>
       </c>
@@ -10077,8 +10303,11 @@
       <c r="AP79" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AQ79" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>275</v>
       </c>
@@ -10159,8 +10388,11 @@
         <v>49</v>
       </c>
       <c r="AP80" s="3"/>
+      <c r="AQ80" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="81" spans="1:42" ht="43" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:43" ht="44.4" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>279</v>
       </c>
@@ -10257,8 +10489,11 @@
       <c r="AP81" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AQ81" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>283</v>
       </c>
@@ -10355,8 +10590,11 @@
       <c r="AP82" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AQ82" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>283</v>
       </c>
@@ -10447,8 +10685,11 @@
         <v>50</v>
       </c>
       <c r="AP83" s="3"/>
+      <c r="AQ83" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>3237710340</v>
       </c>
@@ -10527,8 +10768,11 @@
         <v>50</v>
       </c>
       <c r="AP84" s="3"/>
+      <c r="AQ84" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>3063</v>
       </c>
@@ -10601,8 +10845,11 @@
         <v>50</v>
       </c>
       <c r="AP85" s="3"/>
+      <c r="AQ85" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>296</v>
       </c>
@@ -10699,8 +10946,11 @@
       <c r="AP86" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AQ86" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>2934</v>
       </c>
@@ -10783,8 +11033,11 @@
       <c r="AP87" s="3" t="s">
         <v>301</v>
       </c>
+      <c r="AQ87" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>3030</v>
       </c>
@@ -10863,8 +11116,11 @@
         <v>50</v>
       </c>
       <c r="AP88" s="3"/>
+      <c r="AQ88" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>304</v>
       </c>
@@ -10957,8 +11213,11 @@
         <v>50</v>
       </c>
       <c r="AP89" s="3"/>
+      <c r="AQ89" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>307</v>
       </c>
@@ -11055,8 +11314,11 @@
         <v>50</v>
       </c>
       <c r="AP90" s="3"/>
+      <c r="AQ90" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>309</v>
       </c>
@@ -11159,8 +11421,11 @@
       <c r="AP91" s="3" t="s">
         <v>311</v>
       </c>
+      <c r="AQ91" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="92" spans="1:42" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>309</v>
       </c>
@@ -11265,8 +11530,11 @@
       <c r="AP92" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AQ92" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>313</v>
       </c>
@@ -11357,8 +11625,11 @@
       <c r="AP93" s="3" t="s">
         <v>242</v>
       </c>
+      <c r="AQ93" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>315</v>
       </c>
@@ -11453,8 +11724,11 @@
       <c r="AP94" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="AQ94" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>320</v>
       </c>
@@ -11545,8 +11819,11 @@
         <v>50</v>
       </c>
       <c r="AP95" s="3"/>
+      <c r="AQ95" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>320</v>
       </c>
@@ -11647,8 +11924,11 @@
       <c r="AP96" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AQ96" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="97" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>320</v>
       </c>
@@ -11741,8 +12021,11 @@
         <v>50</v>
       </c>
       <c r="AP97" s="3"/>
+      <c r="AQ97" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="98" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>2895</v>
       </c>
@@ -11833,8 +12116,11 @@
       <c r="AP98" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="AQ98" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="99" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>2372</v>
       </c>
@@ -11923,8 +12209,11 @@
         <v>50</v>
       </c>
       <c r="AP99" s="3"/>
+      <c r="AQ99" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="100" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>330</v>
       </c>
@@ -12015,8 +12304,11 @@
         <v>50</v>
       </c>
       <c r="AP100" s="3"/>
+      <c r="AQ100" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="101" spans="1:42" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>332</v>
       </c>
@@ -12115,8 +12407,11 @@
       <c r="AP101" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="AQ101" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="102" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>2772</v>
       </c>
@@ -12199,8 +12494,11 @@
       <c r="AP102" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="AQ102" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="103" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>338</v>
       </c>
@@ -12289,8 +12587,11 @@
         <v>50</v>
       </c>
       <c r="AP103" s="3"/>
+      <c r="AQ103" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="104" spans="1:42" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>340</v>
       </c>
@@ -12389,8 +12690,11 @@
       <c r="AP104" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="AQ104" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="105" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>343</v>
       </c>
@@ -12483,8 +12787,11 @@
       <c r="AP105" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AQ105" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="106" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>2670</v>
       </c>
@@ -12567,8 +12874,11 @@
         <v>50</v>
       </c>
       <c r="AP106" s="3"/>
+      <c r="AQ106" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="107" spans="1:42" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>349</v>
       </c>
@@ -12669,8 +12979,11 @@
       <c r="AP107" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AQ107" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="108" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>353</v>
       </c>
@@ -12773,8 +13086,11 @@
       <c r="AP108" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AQ108" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="109" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>357</v>
       </c>
@@ -12871,8 +13187,11 @@
         <v>50</v>
       </c>
       <c r="AP109" s="3"/>
+      <c r="AQ109" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="110" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:43" ht="29.6" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>357</v>
       </c>
@@ -12969,9 +13288,12 @@
         <v>50</v>
       </c>
       <c r="AP110" s="3"/>
+      <c r="AQ110" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP110"/>
+  <autoFilter ref="A1:AP110" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>